--- a/docs/PST1/PST1_26.07.24_output.xlsx
+++ b/docs/PST1/PST1_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731602152.4538667</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731602152.825886</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602152.4538667.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602152.825886.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>298.98</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>299.19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2099999999999795</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731602153.0002067</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731602153.9748616</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602153.0002067.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602153.9748616.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>298.95</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>298.81</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1399999999999864</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731602159.297573</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731602161.6580777</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602159.297573.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602161.6580777.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>294.4</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>294.88</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.4800000000000182</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731602162.9170387</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731602162.9170387.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731602162.9170387.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>294.04</v>
       </c>
-      <c r="J6" t="n">
-        <v>294.04</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>294.26</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2199999999999704</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731602165.916466</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731602167.40395</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602165.916466.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602167.40395.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>136.18</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>136.24</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731602168.963455</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731602173.2100227</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602168.963455.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602173.2100227.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>136.08</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.85</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-3.230000000000018</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-2.37</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731602173.2259502</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731602174.8612826</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602173.2259502.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602174.8612826.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.85</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>133.59</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.7400000000000091</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731602176.2171147</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731602177.6266162</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602176.2171147.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602177.6266162.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>135.47</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>135.49</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731602177.6415768</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731602178.2738433</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602177.6415768.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602178.2738433.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>135.49</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>135.45</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.04000000000002046</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731602179.8103786</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731602180.435708</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602179.8103786.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602180.435708.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6962.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6933</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-29.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731602183.0645847</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731602183.512138</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602183.0645847.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602183.512138.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6937</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6950</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>13</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731602185.3651004</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731602186.0355225</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602185.3651004.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602186.0355225.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6925</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6926</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731602187.105636</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731602188.1643438</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602187.105636.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602188.1643438.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6884.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6936</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-51.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.75</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731602190.4256525</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731602191.2134047</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602190.4256525.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602191.2134047.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6934.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6936</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731602193.1728177</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731602193.5734794</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602193.1728177.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602193.5734794.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>537.1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>537.55</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.4499999999999318</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731602194.0376048</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731602194.6055775</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602194.0376048.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602194.6055775.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>537.15</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>535.9</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.25</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731602197.0186543</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731602197.7067811</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602197.0186543.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602197.7067811.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>537.55</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>537.05</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731602198.419618</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731602202.125902</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602198.419618.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602202.125902.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>532.3</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>520.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-11.79999999999995</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-2.22</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731602202.1418319</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731602204.056028</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602202.1418319.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602204.056028.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>520.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>522.9</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-2.399999999999977</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731602204.8770785</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731602205.2165902</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602204.8770785.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602205.2165902.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>523.35</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>524.95</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-1.600000000000023</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -1571,95 +1707,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731602205.7253463</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731602205.7253463.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731602205.7253463.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>524.3</v>
       </c>
-      <c r="J23" t="n">
-        <v>524.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>524.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731602207.1915016</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731602207.9303095</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602207.1915016.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602207.9303095.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1097.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1095.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731602211.1016662</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731602212.0427723</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602211.1016662.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602212.0427723.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1096.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1078.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>18</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>1.64</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731602214.1557724</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731602214.3771477</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602214.1557724.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602214.3771477.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1068</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1058.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>9.599999999999909</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.8999999999999999</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731602214.632219</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731602215.3973756</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602214.632219.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602215.3973756.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1058.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1062.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-3.799999999999955</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731602215.5721526</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731602216.039003</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602215.5721526.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602216.039003.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1064.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1064.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.1999999999998181</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731602217.0047097</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731602219.0202944</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602217.0047097.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602219.0202944.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1067</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1075.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-8.400000000000091</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.79</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731602219.035255</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731602219.9028168</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602219.035255.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602219.9028168.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1075.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1071.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-4.200000000000045</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731602227.8697202</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731602229.3676603</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602227.8697202.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602229.3676603.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>125.62</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>125.44</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731602232.4177768</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731602232.5506</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602232.4177768.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602232.5506.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>127.48</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>127.7</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2083,95 +2279,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731602233.2258747</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731602233.2258747.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731602233.2258747.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>127.42</v>
       </c>
-      <c r="J33" t="n">
-        <v>127.42</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>127.3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731602233.452254</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731602234.8635294</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602233.452254.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602234.8635294.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>173.36</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>172.9</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731602234.8784623</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731602236.0208814</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602234.8784623.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602236.0208814.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>172.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>173.74</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.8400000000000034</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731602236.0487764</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731602237.5269947</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602236.0487764.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602237.5269947.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>173.74</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>175.9</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2.159999999999997</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-1.24</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731602237.5419617</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731602239.868199</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602237.5419617.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602239.868199.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>175.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>171.22</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-4.680000000000007</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-2.66</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731602239.8841853</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731602240.2300358</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602239.8841853.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602240.2300358.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>171.22</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>169.88</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1.340000000000003</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731602242.1421316</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731602244.916237</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602242.1421316.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731602244.916237.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>166.48</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>169.86</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-3.380000000000024</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-2.03</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731602251.4749901</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731602251.5760398</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602251.4749901.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602251.5760398.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>53.21</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>53.08</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.1300000000000026</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731602252.1630263</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731602253.3407388</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602252.1630263.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602253.3407388.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>53.135</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>52.505</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.6299999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-1.19</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731602253.355698</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731602254.1529055</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602253.355698.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602254.1529055.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>52.505</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>52.435</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731602256.3976433</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731602257.20765</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602256.3976433.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602257.20765.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>52.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>52.12</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.0800000000000054</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2647,95 +2909,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731602259.2661579</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731602259.2661579.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731602259.2661579.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>52.51</v>
       </c>
-      <c r="J44" t="n">
-        <v>52.51</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>52.505</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.004999999999995453</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731602261.6361969</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731602263.1960988</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602261.6361969.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602263.1960988.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1460</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1460</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731602264.3545322</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731602267.435201</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602264.3545322.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602267.435201.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1461.4</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1446.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-14.60000000000014</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731602267.4501612</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731602267.7474926</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602267.4501612.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602267.7474926.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1446.8</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1440</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>6.799999999999955</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -2847,51 +3133,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731602268.7277892</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731602268.862474</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602268.7277892.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731602268.862474.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1422.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1419.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>3</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -2899,95 +3191,107 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731602274.3849983</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731602274.3849983.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731602274.3849983.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1441</v>
       </c>
-      <c r="J49" t="n">
-        <v>1441</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1440.2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.7999999999999545</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731602275.1497545</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731602276.4121835</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602275.1497545.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602276.4121835.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>63.56</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>63.55</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731602278.9475346</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731602279.223705</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602278.9475346.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602279.223705.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>62.97</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>62.77</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1999999999999957</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731602279.239662</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731602279.5733738</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602279.239662.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602279.5733738.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>62.77</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>62.66</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1100000000000065</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731602282.4302142</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731602282.7138417</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602282.4302142.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602282.7138417.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>61.2</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>60.97</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.230000000000004</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731602283.6043577</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731602284.9161162</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602283.6043577.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602284.9161162.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>61.26</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>61.36</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3203,95 +3531,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731602286.138176</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731602286.138176.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731602286.138176.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>61.54</v>
       </c>
-      <c r="J55" t="n">
-        <v>61.54</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>61.32</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731602287.2765894</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731602288.3920863</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602287.2765894.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602288.3920863.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>58.74</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>58.97</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3299,51 +3639,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731602291.3548586</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731602292.887004</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602291.3548586.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602292.887004.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>58.25</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>57.87</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.3800000000000026</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -3351,51 +3697,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731602292.9029613</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731602293.1857944</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602292.9029613.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602293.1857944.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>57.87</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>57.6</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -3403,51 +3755,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731602296.1842368</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731602296.5827787</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602296.1842368.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731602296.5827787.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>56.95</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>57.22</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.269999999999996</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -3455,51 +3813,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731602299.7913501</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731602301.5081816</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602299.7913501.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602301.5081816.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>144.7</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>144.98</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3507,51 +3871,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731602302.1920478</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731602303.1196866</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602302.1920478.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602303.1196866.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>145.02</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>143.52</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-1.03</v>
       </c>
     </row>
@@ -3559,51 +3929,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731602305.0560353</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731602305.7425926</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602305.0560353.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602305.7425926.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>141.32</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>141.06</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3611,51 +3987,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731602306.7102835</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731602309.039937</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602306.7102835.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731602309.039937.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>139.8</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>141.26</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-1.45999999999998</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-1.04</v>
       </c>
     </row>
@@ -3663,95 +4045,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731602311.1523173</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731602311.1523173.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731602311.1523173.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>140.66</v>
       </c>
-      <c r="J64" t="n">
-        <v>140.66</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>140.08</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.5799999999999841</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731602313.6765742</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731602314.2536333</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602313.6765742.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602314.2536333.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>58.31</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>58.64</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -3759,51 +4153,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731602314.268593</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731602315.4044278</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602314.268593.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602315.4044278.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>58.64</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>57.33</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.310000000000002</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>2.23</v>
       </c>
     </row>
@@ -3811,51 +4211,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731602315.419388</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731602315.9088714</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602315.419388.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602315.9088714.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>57.33</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>57.3</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -3863,51 +4269,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731602315.924603</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731602316.2101276</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602315.924603.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602316.2101276.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>57.3</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>56.67</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.6299999999999955</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -3915,51 +4327,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731602316.2971463</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731602316.5421116</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602316.2971463.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602316.5421116.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>56.78</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>56.52</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.259999999999998</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3967,51 +4385,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731602316.8297522</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731602317.6145718</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602316.8297522.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602317.6145718.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>56.15</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>55.94</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -4019,95 +4443,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731602319.2915673</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731602319.2915673.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731602319.2915673.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>56.08</v>
       </c>
-      <c r="J71" t="n">
-        <v>56.08</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>56.07</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731602324.311979</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731602324.5475957</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602324.311979.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602324.5475957.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>384.56</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>383.31</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>1.25</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -4115,51 +4551,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731602325.3084295</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731602325.5518794</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602325.3084295.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602325.5518794.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>382.6</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>381.93</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.6700000000000159</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -4167,51 +4609,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731602327.994279</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731602330.5526052</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602327.994279.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602330.5526052.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>382.91</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>382.43</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.4800000000000182</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -4219,51 +4667,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731602330.5685616</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731602330.9635828</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602330.5685616.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602330.9635828.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>382.43</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>382.31</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4271,51 +4725,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731602333.4635003</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731602334.4974244</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602333.4635003.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602334.4974244.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>384.84</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>385.22</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.3800000000000523</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4323,51 +4783,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731602340.017323</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731602343.653215</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602340.017323.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602343.653215.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.1002</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.09834000000000001</v>
       </c>
-      <c r="K77" t="n">
-        <v>-0.001860000000000001</v>
-      </c>
-      <c r="L77" t="n">
+      <c r="M77" t="n">
+        <v>-0.001859999999999987</v>
+      </c>
+      <c r="N77" t="n">
         <v>-1.86</v>
       </c>
     </row>
@@ -4375,51 +4841,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731602343.6711333</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731602344.4647055</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602343.6711333.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731602344.4647055.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.09834000000000001</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.09796000000000001</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0003800000000000053</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -4427,95 +4899,107 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731602347.4387608</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731602347.4387608.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731602347.4387608.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.09892000000000001</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.09892000000000001</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.09826</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.0006600000000000078</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731602349.3037388</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731602350.7177687</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602349.3037388.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602350.7177687.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>3131.3</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>3128.65</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-2.650000000000091</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4523,51 +5007,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731602356.8254118</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731602359.1189797</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602356.8254118.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602359.1189797.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>3068.95</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>3080.45</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-11.5</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -4575,51 +5065,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731602362.5666215</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731602365.3204217</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602362.5666215.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602365.3204217.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>37.815</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>37.68</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.134999999999998</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -4627,51 +5123,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731602365.6321638</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731602368.3419812</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602365.6321638.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602368.3419812.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>37.71</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>36.4</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-1.310000000000002</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-3.47</v>
       </c>
     </row>
@@ -4679,51 +5181,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731602368.3579404</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731602368.5522392</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602368.3579404.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602368.5522392.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>36.4</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>36.15</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.25</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -4731,51 +5239,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731602370.162129</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731602371.279205</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602370.162129.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602371.279205.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>35.6</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>35.975</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.375</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>-1.05</v>
       </c>
     </row>
@@ -4783,51 +5297,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731602372.7196994</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731602374.0828755</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602372.7196994.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602374.0828755.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>36.04</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>35.855</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.1850000000000023</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -4835,95 +5355,107 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731602374.09983</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731602374.09983.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731602374.09983.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>35.855</v>
       </c>
-      <c r="J87" t="n">
-        <v>35.855</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>35.8</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.05499999999999972</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731602375.4874325</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731602375.8165166</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602375.4874325.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602375.8165166.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>660.1</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>660.9</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4931,51 +5463,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731602376.279026</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731602377.0571806</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602376.279026.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602377.0571806.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>660.5</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>660.9</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4983,51 +5521,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731602378.5429761</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731602380.880941</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602378.5429761.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602380.880941.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>659.5</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>650.9</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-8.600000000000023</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-1.3</v>
       </c>
     </row>
@@ -5035,51 +5579,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731602380.898835</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731602381.6525772</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602380.898835.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602381.6525772.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>650.9</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>657</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-6.100000000000023</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-0.9400000000000001</v>
       </c>
     </row>
@@ -5087,51 +5637,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731602387.513101</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731602388.1227968</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602387.513101.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602388.1227968.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>651.6</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>653.7</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>2.100000000000023</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -5193,16 +5749,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.709999999999994</v>
+        <v>2.719999999999992</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3871428571428562</v>
+        <v>0.3885714285714274</v>
       </c>
       <c r="E2" t="n">
-        <v>4.68</v>
+        <v>4.7</v>
       </c>
       <c r="F2" t="n">
         <v>0.67</v>
@@ -5215,19 +5771,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.10000000000002</v>
+        <v>-17.70000000000005</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.442857142857146</v>
+        <v>-2.528571428571435</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.23</v>
+        <v>-3.34</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.46</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="4">
@@ -5259,19 +5815,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.384999999999998</v>
+        <v>-1.439999999999998</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.230833333333333</v>
+        <v>-0.2399999999999996</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.68</v>
+        <v>-3.83</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.61</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="6">
@@ -5303,19 +5859,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03000000000000824</v>
+        <v>0.2500000000000071</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005000000000001374</v>
+        <v>0.04166666666666785</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05999999999999997</v>
+        <v>0.4199999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5347,16 +5903,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6099999999999923</v>
+        <v>-0.6049999999999969</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1219999999999985</v>
+        <v>-0.1209999999999994</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.15</v>
+        <v>-1.14</v>
       </c>
       <c r="F9" t="n">
         <v>-0.23</v>
@@ -5413,19 +5969,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.800000000000182</v>
+        <v>-5.600000000000136</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.9600000000000364</v>
+        <v>-1.120000000000027</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.32</v>
+        <v>-0.38</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="13">
@@ -5457,19 +6013,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.419999999999987</v>
+        <v>-2.999999999999972</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4839999999999975</v>
+        <v>-0.5999999999999943</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.7</v>
+        <v>-2.11</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.34</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="15">
@@ -5479,19 +6035,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.410000000000025</v>
+        <v>-0.1900000000000546</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1025000000000063</v>
+        <v>-0.04750000000001364</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.14</v>
+        <v>-0.07000000000000002</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="16">
@@ -5523,19 +6079,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4000000000000057</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1333333333333352</v>
+        <v>0.09333333333333371</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5545,19 +6101,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001479999999999995</v>
+        <v>-0.002139999999999989</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0004933333333333317</v>
+        <v>-0.0007133333333333297</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.47</v>
+        <v>-2.14</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.49</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="19">
